--- a/config_Release/fish3d_head_frame_config.xlsx
+++ b/config_Release/fish3d_head_frame_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -318,6 +318,18 @@
   <si>
     <t>基础头像框</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -781,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,13 +1131,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,13 +1145,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,13 +1159,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,13 +1173,83 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
